--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1755.036968930624</v>
+        <v>2019.258712392467</v>
       </c>
       <c r="AB2" t="n">
-        <v>2401.319007657441</v>
+        <v>2762.838853702573</v>
       </c>
       <c r="AC2" t="n">
-        <v>2172.140491839009</v>
+        <v>2499.157391173884</v>
       </c>
       <c r="AD2" t="n">
-        <v>1755036.968930624</v>
+        <v>2019258.712392468</v>
       </c>
       <c r="AE2" t="n">
-        <v>2401319.007657441</v>
+        <v>2762838.853702573</v>
       </c>
       <c r="AF2" t="n">
         <v>3.039030663170683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.64713541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2172140.491839009</v>
+        <v>2499157.391173884</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.0986200674472</v>
+        <v>1055.469316244589</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.50395623909</v>
+        <v>1444.139682505755</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.402526029656</v>
+        <v>1306.31301807018</v>
       </c>
       <c r="AD3" t="n">
-        <v>889098.6200674472</v>
+        <v>1055469.316244588</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216503.95623909</v>
+        <v>1444139.682505755</v>
       </c>
       <c r="AF3" t="n">
         <v>4.786846965565374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100402.526029656</v>
+        <v>1306313.01807018</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.7523709588534</v>
+        <v>877.5460245952979</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.84763246523</v>
+        <v>1200.697185449553</v>
       </c>
       <c r="AC4" t="n">
-        <v>904.4235777177136</v>
+        <v>1086.104331259331</v>
       </c>
       <c r="AD4" t="n">
-        <v>730752.3709588534</v>
+        <v>877546.0245952979</v>
       </c>
       <c r="AE4" t="n">
-        <v>999847.6324652301</v>
+        <v>1200697.185449553</v>
       </c>
       <c r="AF4" t="n">
         <v>5.458731660016959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>904423.5777177135</v>
+        <v>1086104.331259331</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>656.2945358052398</v>
+        <v>793.2996681713358</v>
       </c>
       <c r="AB5" t="n">
-        <v>897.9711375602019</v>
+        <v>1085.427603903353</v>
       </c>
       <c r="AC5" t="n">
-        <v>812.2700325018627</v>
+        <v>981.8359167940266</v>
       </c>
       <c r="AD5" t="n">
-        <v>656294.5358052398</v>
+        <v>793299.6681713358</v>
       </c>
       <c r="AE5" t="n">
-        <v>897971.1375602019</v>
+        <v>1085427.603903353</v>
       </c>
       <c r="AF5" t="n">
         <v>5.825893622575181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.94010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>812270.0325018627</v>
+        <v>981835.9167940266</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>612.0858012040721</v>
+        <v>749.0567681513875</v>
       </c>
       <c r="AB6" t="n">
-        <v>837.4827965271628</v>
+        <v>1024.892516237067</v>
       </c>
       <c r="AC6" t="n">
-        <v>757.5546138410969</v>
+        <v>927.078212933081</v>
       </c>
       <c r="AD6" t="n">
-        <v>612085.8012040722</v>
+        <v>749056.7681513875</v>
       </c>
       <c r="AE6" t="n">
-        <v>837482.7965271628</v>
+        <v>1024892.516237067</v>
       </c>
       <c r="AF6" t="n">
         <v>6.050096265503052e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.94401041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>757554.6138410969</v>
+        <v>927078.212933081</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>585.5288121070849</v>
+        <v>712.6781033951281</v>
       </c>
       <c r="AB7" t="n">
-        <v>801.1463524329939</v>
+        <v>975.1176222041327</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.6860689727559</v>
+        <v>882.0537649271478</v>
       </c>
       <c r="AD7" t="n">
-        <v>585528.8121070849</v>
+        <v>712678.1033951282</v>
       </c>
       <c r="AE7" t="n">
-        <v>801146.3524329939</v>
+        <v>975117.6222041326</v>
       </c>
       <c r="AF7" t="n">
         <v>6.208484584216612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.27994791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>724686.0689727559</v>
+        <v>882053.7649271478</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>580.4626369059401</v>
+        <v>707.6119281939834</v>
       </c>
       <c r="AB8" t="n">
-        <v>794.2145880189121</v>
+        <v>968.1858577900508</v>
       </c>
       <c r="AC8" t="n">
-        <v>718.4158624255615</v>
+        <v>875.7835583799534</v>
       </c>
       <c r="AD8" t="n">
-        <v>580462.6369059401</v>
+        <v>707611.9281939834</v>
       </c>
       <c r="AE8" t="n">
-        <v>794214.5880189121</v>
+        <v>968185.8577900508</v>
       </c>
       <c r="AF8" t="n">
         <v>6.239824738604379e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.14973958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>718415.8624255615</v>
+        <v>875783.5583799534</v>
       </c>
     </row>
   </sheetData>
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1270.974735571032</v>
+        <v>1483.845331646925</v>
       </c>
       <c r="AB2" t="n">
-        <v>1739.003704656295</v>
+        <v>2030.262645395234</v>
       </c>
       <c r="AC2" t="n">
-        <v>1573.035631790926</v>
+        <v>1836.497228010232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1270974.735571032</v>
+        <v>1483845.331646925</v>
       </c>
       <c r="AE2" t="n">
-        <v>1739003.704656295</v>
+        <v>2030262.645395234</v>
       </c>
       <c r="AF2" t="n">
         <v>3.955438610136843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.41796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1573035.631790926</v>
+        <v>1836497.228010232</v>
       </c>
     </row>
     <row r="3">
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.7628238934795</v>
+        <v>887.9037413373969</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.280864034173</v>
+        <v>1214.869070446306</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.288444729902</v>
+        <v>1098.923671442359</v>
       </c>
       <c r="AD3" t="n">
-        <v>742762.8238934795</v>
+        <v>887903.7413373969</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016280.864034173</v>
+        <v>1214869.070446306</v>
       </c>
       <c r="AF3" t="n">
         <v>5.680057325246859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>919288.4447299021</v>
+        <v>1098923.671442359</v>
       </c>
     </row>
     <row r="4">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>628.2828501910882</v>
+        <v>763.7090530661166</v>
       </c>
       <c r="AB4" t="n">
-        <v>859.6443135145679</v>
+        <v>1044.940418870588</v>
       </c>
       <c r="AC4" t="n">
-        <v>777.6010667511085</v>
+        <v>945.2127718766669</v>
       </c>
       <c r="AD4" t="n">
-        <v>628282.8501910882</v>
+        <v>763709.0530661165</v>
       </c>
       <c r="AE4" t="n">
-        <v>859644.3135145679</v>
+        <v>1044940.418870588</v>
       </c>
       <c r="AF4" t="n">
         <v>6.323953667183773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.15494791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>777601.0667511085</v>
+        <v>945212.7718766669</v>
       </c>
     </row>
     <row r="5">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>563.1952725959449</v>
+        <v>698.6546298598969</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.588618387627</v>
+        <v>955.9300870412404</v>
       </c>
       <c r="AC5" t="n">
-        <v>697.0447221766298</v>
+        <v>864.6974611903273</v>
       </c>
       <c r="AD5" t="n">
-        <v>563195.2725959448</v>
+        <v>698654.6298598968</v>
       </c>
       <c r="AE5" t="n">
-        <v>770588.6183876269</v>
+        <v>955930.0870412404</v>
       </c>
       <c r="AF5" t="n">
         <v>6.669510491410465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.74869791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>697044.7221766298</v>
+        <v>864697.4611903273</v>
       </c>
     </row>
     <row r="6">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.5773558559257</v>
+        <v>675.3230095808459</v>
       </c>
       <c r="AB6" t="n">
-        <v>751.955983923847</v>
+        <v>924.0067348570019</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.1903601950063</v>
+        <v>835.8208289338463</v>
       </c>
       <c r="AD6" t="n">
-        <v>549577.3558559257</v>
+        <v>675323.0095808459</v>
       </c>
       <c r="AE6" t="n">
-        <v>751955.9839238471</v>
+        <v>924006.7348570019</v>
       </c>
       <c r="AF6" t="n">
         <v>6.768956997313872e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.37109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>680190.3601950062</v>
+        <v>835820.8289338463</v>
       </c>
     </row>
     <row r="7">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>550.4690852644422</v>
+        <v>676.2147389893624</v>
       </c>
       <c r="AB7" t="n">
-        <v>753.1760874409044</v>
+        <v>925.2268383740592</v>
       </c>
       <c r="AC7" t="n">
-        <v>681.2940187448216</v>
+        <v>836.9244874836618</v>
       </c>
       <c r="AD7" t="n">
-        <v>550469.0852644423</v>
+        <v>676214.7389893625</v>
       </c>
       <c r="AE7" t="n">
-        <v>753176.0874409045</v>
+        <v>925226.8383740592</v>
       </c>
       <c r="AF7" t="n">
         <v>6.772122403337323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.35807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>681294.0187448217</v>
+        <v>836924.4874836617</v>
       </c>
     </row>
   </sheetData>
@@ -4512,19 +4512,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>578.8743827855448</v>
+        <v>728.4937597836074</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.0414686625605</v>
+        <v>996.757301012366</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.4501425305882</v>
+        <v>901.6281831614035</v>
       </c>
       <c r="AD2" t="n">
-        <v>578874.3827855447</v>
+        <v>728493.7597836074</v>
       </c>
       <c r="AE2" t="n">
-        <v>792041.4686625606</v>
+        <v>996757.3010123661</v>
       </c>
       <c r="AF2" t="n">
         <v>7.990720047136144e-06</v>
@@ -4533,7 +4533,7 @@
         <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>716450.1425305882</v>
+        <v>901628.1831614035</v>
       </c>
     </row>
     <row r="3">
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>497.5701011177565</v>
+        <v>619.1582093452777</v>
       </c>
       <c r="AB3" t="n">
-        <v>680.7973635929355</v>
+        <v>847.1595773585865</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.823018716726</v>
+        <v>766.3078562914168</v>
       </c>
       <c r="AD3" t="n">
-        <v>497570.1011177565</v>
+        <v>619158.2093452776</v>
       </c>
       <c r="AE3" t="n">
-        <v>680797.3635929355</v>
+        <v>847159.5773585865</v>
       </c>
       <c r="AF3" t="n">
         <v>8.867000455936035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>615823.018716726</v>
+        <v>766307.8562914168</v>
       </c>
     </row>
   </sheetData>
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.7651706997568</v>
+        <v>941.3831021748151</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.594910310874</v>
+        <v>1288.041891286947</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.9458522040566</v>
+        <v>1165.112980960669</v>
       </c>
       <c r="AD2" t="n">
-        <v>770765.1706997568</v>
+        <v>941383.1021748151</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054594.910310874</v>
+        <v>1288041.891286947</v>
       </c>
       <c r="AF2" t="n">
         <v>6.10880816412279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>953945.8522040566</v>
+        <v>1165112.980960669</v>
       </c>
     </row>
     <row r="3">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.2926109983125</v>
+        <v>662.0144273782361</v>
       </c>
       <c r="AB3" t="n">
-        <v>724.2015011098765</v>
+        <v>905.7973455541821</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.0847262671397</v>
+        <v>819.3493181890492</v>
       </c>
       <c r="AD3" t="n">
-        <v>529292.6109983125</v>
+        <v>662014.4273782361</v>
       </c>
       <c r="AE3" t="n">
-        <v>724201.5011098766</v>
+        <v>905797.3455541821</v>
       </c>
       <c r="AF3" t="n">
         <v>7.768411822677992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>655084.7262671397</v>
+        <v>819349.3181890493</v>
       </c>
     </row>
     <row r="4">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.9550715139491</v>
+        <v>635.1611633764701</v>
       </c>
       <c r="AB4" t="n">
-        <v>700.4795147091108</v>
+        <v>869.055525064569</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.6267329544461</v>
+        <v>786.1140854794958</v>
       </c>
       <c r="AD4" t="n">
-        <v>511955.0715139491</v>
+        <v>635161.1633764701</v>
       </c>
       <c r="AE4" t="n">
-        <v>700479.5147091108</v>
+        <v>869055.525064569</v>
       </c>
       <c r="AF4" t="n">
         <v>7.974706456123759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.02864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>633626.7329544461</v>
+        <v>786114.0854794958</v>
       </c>
     </row>
   </sheetData>
@@ -5424,28 +5424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.640589131631</v>
+        <v>629.2735863540227</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.3160995850258</v>
+        <v>860.9998824408896</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.2466332386934</v>
+        <v>778.8272620816551</v>
       </c>
       <c r="AD2" t="n">
-        <v>490640.589131631</v>
+        <v>629273.5863540226</v>
       </c>
       <c r="AE2" t="n">
-        <v>671316.0995850258</v>
+        <v>860999.8824408896</v>
       </c>
       <c r="AF2" t="n">
         <v>9.671821319479449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>607246.6332386935</v>
+        <v>778827.2620816551</v>
       </c>
     </row>
     <row r="3">
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.917004059534</v>
+        <v>621.3670889283101</v>
       </c>
       <c r="AB3" t="n">
-        <v>673.062546800835</v>
+        <v>850.181863852981</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.8264019833798</v>
+        <v>769.0417000045919</v>
       </c>
       <c r="AD3" t="n">
-        <v>491917.0040595339</v>
+        <v>621367.0889283101</v>
       </c>
       <c r="AE3" t="n">
-        <v>673062.5468008349</v>
+        <v>850181.863852981</v>
       </c>
       <c r="AF3" t="n">
         <v>9.689532960875487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>608826.4019833799</v>
+        <v>769041.700004592</v>
       </c>
     </row>
   </sheetData>
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1375.878451848166</v>
+        <v>1599.082326694697</v>
       </c>
       <c r="AB2" t="n">
-        <v>1882.537597292003</v>
+        <v>2187.934985917013</v>
       </c>
       <c r="AC2" t="n">
-        <v>1702.870851164566</v>
+        <v>1979.121541647132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1375878.451848166</v>
+        <v>1599082.326694697</v>
       </c>
       <c r="AE2" t="n">
-        <v>1882537.597292003</v>
+        <v>2187934.985917013</v>
       </c>
       <c r="AF2" t="n">
         <v>3.704923560983855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1702870.851164566</v>
+        <v>1979121.541647132</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.9056795752812</v>
+        <v>928.2143733377288</v>
       </c>
       <c r="AB3" t="n">
-        <v>1057.523648986954</v>
+        <v>1270.023855528732</v>
       </c>
       <c r="AC3" t="n">
-        <v>956.5950761714015</v>
+        <v>1148.814561246745</v>
       </c>
       <c r="AD3" t="n">
-        <v>772905.6795752812</v>
+        <v>928214.3733377288</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057523.648986954</v>
+        <v>1270023.855528732</v>
       </c>
       <c r="AF3" t="n">
         <v>5.433956532506717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.83984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>956595.0761714015</v>
+        <v>1148814.561246745</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>650.4323550957876</v>
+        <v>786.3573568793623</v>
       </c>
       <c r="AB4" t="n">
-        <v>889.950243292369</v>
+        <v>1075.928827320517</v>
       </c>
       <c r="AC4" t="n">
-        <v>805.0146411255558</v>
+        <v>973.2436901166393</v>
       </c>
       <c r="AD4" t="n">
-        <v>650432.3550957876</v>
+        <v>786357.3568793624</v>
       </c>
       <c r="AE4" t="n">
-        <v>889950.2432923691</v>
+        <v>1075928.827320517</v>
       </c>
       <c r="AF4" t="n">
         <v>6.088039126021618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>805014.6411255558</v>
+        <v>973243.6901166392</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>594.4699594822382</v>
+        <v>720.6187127592818</v>
       </c>
       <c r="AB5" t="n">
-        <v>813.3800247272616</v>
+        <v>985.9823142511289</v>
       </c>
       <c r="AC5" t="n">
-        <v>735.7521767533258</v>
+        <v>891.8815460138696</v>
       </c>
       <c r="AD5" t="n">
-        <v>594469.9594822382</v>
+        <v>720618.7127592819</v>
       </c>
       <c r="AE5" t="n">
-        <v>813380.0247272616</v>
+        <v>985982.3142511288</v>
       </c>
       <c r="AF5" t="n">
         <v>6.436574282109449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.03515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>735752.1767533257</v>
+        <v>891881.5460138697</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>557.2889184269937</v>
+        <v>683.4035062852568</v>
       </c>
       <c r="AB6" t="n">
-        <v>762.5072840437125</v>
+        <v>935.0628269343317</v>
       </c>
       <c r="AC6" t="n">
-        <v>689.7346590402743</v>
+        <v>845.8217431006383</v>
       </c>
       <c r="AD6" t="n">
-        <v>557288.9184269938</v>
+        <v>683403.5062852567</v>
       </c>
       <c r="AE6" t="n">
-        <v>762507.2840437125</v>
+        <v>935062.8269343317</v>
       </c>
       <c r="AF6" t="n">
         <v>6.623197611624718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.29947916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>689734.6590402743</v>
+        <v>845821.7431006383</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>557.3523291280258</v>
+        <v>683.4669169862887</v>
       </c>
       <c r="AB7" t="n">
-        <v>762.5940453623471</v>
+        <v>935.1495882529663</v>
       </c>
       <c r="AC7" t="n">
-        <v>689.8131399804288</v>
+        <v>845.9002240407928</v>
       </c>
       <c r="AD7" t="n">
-        <v>557352.3291280258</v>
+        <v>683466.9169862886</v>
       </c>
       <c r="AE7" t="n">
-        <v>762594.045362347</v>
+        <v>935149.5882529663</v>
       </c>
       <c r="AF7" t="n">
         <v>6.630919956294316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.2734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>689813.1399804287</v>
+        <v>845900.2240407928</v>
       </c>
     </row>
   </sheetData>
@@ -6654,28 +6654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.2128339825526</v>
+        <v>628.9541242029949</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.0990702357178</v>
+        <v>860.5627802321781</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.9548782693896</v>
+        <v>778.4318762942661</v>
       </c>
       <c r="AD2" t="n">
-        <v>491212.8339825526</v>
+        <v>628954.1242029949</v>
       </c>
       <c r="AE2" t="n">
-        <v>672099.0702357178</v>
+        <v>860562.780232178</v>
       </c>
       <c r="AF2" t="n">
         <v>1.019146577753736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>607954.8782693896</v>
+        <v>778431.8762942661</v>
       </c>
     </row>
   </sheetData>
@@ -6951,28 +6951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>997.822158993751</v>
+        <v>1189.455384020346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1365.264298742073</v>
+        <v>1627.465331484676</v>
       </c>
       <c r="AC2" t="n">
-        <v>1234.965390230607</v>
+        <v>1472.142324409717</v>
       </c>
       <c r="AD2" t="n">
-        <v>997822.158993751</v>
+        <v>1189455.384020346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1365264.298742073</v>
+        <v>1627465.331484676</v>
       </c>
       <c r="AF2" t="n">
         <v>4.871211159509104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1234965.390230607</v>
+        <v>1472142.324409717</v>
       </c>
     </row>
     <row r="3">
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>635.8536732603816</v>
+        <v>779.5446793690112</v>
       </c>
       <c r="AB3" t="n">
-        <v>870.0030476391164</v>
+        <v>1066.607421396735</v>
       </c>
       <c r="AC3" t="n">
-        <v>786.9711778293848</v>
+        <v>964.8119060915477</v>
       </c>
       <c r="AD3" t="n">
-        <v>635853.6732603816</v>
+        <v>779544.6793690112</v>
       </c>
       <c r="AE3" t="n">
-        <v>870003.0476391164</v>
+        <v>1066607.421396735</v>
       </c>
       <c r="AF3" t="n">
         <v>6.559197832871353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.47005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>786971.1778293848</v>
+        <v>964811.9060915477</v>
       </c>
     </row>
     <row r="4">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.721051477937</v>
+        <v>672.890933610678</v>
       </c>
       <c r="AB4" t="n">
-        <v>737.101909327536</v>
+        <v>920.6790612189989</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.7539376303424</v>
+        <v>832.810743797435</v>
       </c>
       <c r="AD4" t="n">
-        <v>538721.0514779369</v>
+        <v>672890.933610678</v>
       </c>
       <c r="AE4" t="n">
-        <v>737101.909327536</v>
+        <v>920679.0612189989</v>
       </c>
       <c r="AF4" t="n">
         <v>7.183050171794531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>666753.9376303424</v>
+        <v>832810.743797435</v>
       </c>
     </row>
     <row r="5">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.8180256022181</v>
+        <v>651.4677947889278</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.8156641999374</v>
+        <v>891.3669775608987</v>
       </c>
       <c r="AC5" t="n">
-        <v>652.0220288798333</v>
+        <v>806.2961642638962</v>
       </c>
       <c r="AD5" t="n">
-        <v>526818.0256022181</v>
+        <v>651467.7947889278</v>
       </c>
       <c r="AE5" t="n">
-        <v>720815.6641999374</v>
+        <v>891366.9775608988</v>
       </c>
       <c r="AF5" t="n">
         <v>7.294626521146768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>652022.0288798333</v>
+        <v>806296.1642638962</v>
       </c>
     </row>
   </sheetData>
@@ -7566,28 +7566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1172.516142310916</v>
+        <v>1384.771801008813</v>
       </c>
       <c r="AB2" t="n">
-        <v>1604.288313671232</v>
+        <v>1894.705869960474</v>
       </c>
       <c r="AC2" t="n">
-        <v>1451.177288647239</v>
+        <v>1713.877800967836</v>
       </c>
       <c r="AD2" t="n">
-        <v>1172516.142310916</v>
+        <v>1384771.801008813</v>
       </c>
       <c r="AE2" t="n">
-        <v>1604288.313671232</v>
+        <v>1894705.869960474</v>
       </c>
       <c r="AF2" t="n">
         <v>4.228162588330526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.68619791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1451177.288647239</v>
+        <v>1713877.800967836</v>
       </c>
     </row>
     <row r="3">
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>703.414865749774</v>
+        <v>848.1812222512232</v>
       </c>
       <c r="AB3" t="n">
-        <v>962.4432517925563</v>
+        <v>1160.518967398741</v>
       </c>
       <c r="AC3" t="n">
-        <v>870.5890186390617</v>
+        <v>1049.760665948805</v>
       </c>
       <c r="AD3" t="n">
-        <v>703414.865749774</v>
+        <v>848181.2222512232</v>
       </c>
       <c r="AE3" t="n">
-        <v>962443.2517925564</v>
+        <v>1160518.967398741</v>
       </c>
       <c r="AF3" t="n">
         <v>5.947909579498836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>870589.0186390617</v>
+        <v>1049760.665948805</v>
       </c>
     </row>
     <row r="4">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.6154866115476</v>
+        <v>729.696587260786</v>
       </c>
       <c r="AB4" t="n">
-        <v>813.5791413657865</v>
+        <v>998.4030626316447</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.9322899793317</v>
+        <v>903.1168756015791</v>
       </c>
       <c r="AD4" t="n">
-        <v>594615.4866115475</v>
+        <v>729696.587260786</v>
       </c>
       <c r="AE4" t="n">
-        <v>813579.1413657865</v>
+        <v>998403.0626316448</v>
       </c>
       <c r="AF4" t="n">
         <v>6.591731737086721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.73828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>735932.2899793317</v>
+        <v>903116.8756015791</v>
       </c>
     </row>
     <row r="5">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.899472925089</v>
+        <v>670.3636485596784</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.5554981242465</v>
+        <v>917.2211183162734</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.4007277769813</v>
+        <v>829.6828221120924</v>
       </c>
       <c r="AD5" t="n">
-        <v>544899.472925089</v>
+        <v>670363.6485596783</v>
       </c>
       <c r="AE5" t="n">
-        <v>745555.4981242465</v>
+        <v>917221.1183162734</v>
       </c>
       <c r="AF5" t="n">
         <v>6.904437621028691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.52734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>674400.7277769813</v>
+        <v>829682.8221120924</v>
       </c>
     </row>
     <row r="6">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>541.7374554764638</v>
+        <v>667.1001458845678</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.2290863526731</v>
+        <v>912.7558499806108</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.4872226727298</v>
+        <v>825.6437127193418</v>
       </c>
       <c r="AD6" t="n">
-        <v>541737.4554764638</v>
+        <v>667100.1458845679</v>
       </c>
       <c r="AE6" t="n">
-        <v>741229.0863526731</v>
+        <v>912755.8499806109</v>
       </c>
       <c r="AF6" t="n">
         <v>6.93963395428623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.39713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>670487.2226727298</v>
+        <v>825643.7127193419</v>
       </c>
     </row>
   </sheetData>
@@ -8287,28 +8287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1618.066105554231</v>
+        <v>1862.035494747025</v>
       </c>
       <c r="AB2" t="n">
-        <v>2213.909429657843</v>
+        <v>2547.719111121249</v>
       </c>
       <c r="AC2" t="n">
-        <v>2002.617020932698</v>
+        <v>2304.568374902067</v>
       </c>
       <c r="AD2" t="n">
-        <v>1618066.105554231</v>
+        <v>1862035.494747025</v>
       </c>
       <c r="AE2" t="n">
-        <v>2213909.429657843</v>
+        <v>2547719.111121249</v>
       </c>
       <c r="AF2" t="n">
         <v>3.245311850804479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2002617.020932698</v>
+        <v>2304568.374902067</v>
       </c>
     </row>
     <row r="3">
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>855.1051583850416</v>
+        <v>1011.243198205676</v>
       </c>
       <c r="AB3" t="n">
-        <v>1169.992602279536</v>
+        <v>1383.627556686291</v>
       </c>
       <c r="AC3" t="n">
-        <v>1058.330150412907</v>
+        <v>1251.576084609623</v>
       </c>
       <c r="AD3" t="n">
-        <v>855105.1583850416</v>
+        <v>1011243.198205676</v>
       </c>
       <c r="AE3" t="n">
-        <v>1169992.602279535</v>
+        <v>1383627.556686291</v>
       </c>
       <c r="AF3" t="n">
         <v>4.992503480476935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.09635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1058330.150412906</v>
+        <v>1251576.084609623</v>
       </c>
     </row>
     <row r="4">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.4340647966942</v>
+        <v>844.0464346637863</v>
       </c>
       <c r="AB4" t="n">
-        <v>967.9424972431001</v>
+        <v>1154.861568607656</v>
       </c>
       <c r="AC4" t="n">
-        <v>875.5634238220451</v>
+        <v>1044.643201358132</v>
       </c>
       <c r="AD4" t="n">
-        <v>707434.0647966942</v>
+        <v>844046.4346637863</v>
       </c>
       <c r="AE4" t="n">
-        <v>967942.4972431001</v>
+        <v>1154861.568607656</v>
       </c>
       <c r="AF4" t="n">
         <v>5.651607464737089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.35286458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>875563.4238220451</v>
+        <v>1044643.201358132</v>
       </c>
     </row>
     <row r="5">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.2214657171585</v>
+        <v>771.8669899731743</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.13803338745</v>
+        <v>1056.1024680496</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.1887193238424</v>
+        <v>955.3095307480686</v>
       </c>
       <c r="AD5" t="n">
-        <v>635221.4657171585</v>
+        <v>771866.9899731743</v>
       </c>
       <c r="AE5" t="n">
-        <v>869138.03338745</v>
+        <v>1056102.4680496</v>
       </c>
       <c r="AF5" t="n">
         <v>6.019061627732015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.62109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>786188.7193238424</v>
+        <v>955309.5307480686</v>
       </c>
     </row>
     <row r="6">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>592.2827074539799</v>
+        <v>719.1995621520055</v>
       </c>
       <c r="AB6" t="n">
-        <v>810.3873300074495</v>
+        <v>984.0405697817472</v>
       </c>
       <c r="AC6" t="n">
-        <v>733.045100617299</v>
+        <v>890.1251189113904</v>
       </c>
       <c r="AD6" t="n">
-        <v>592282.7074539799</v>
+        <v>719199.5621520055</v>
       </c>
       <c r="AE6" t="n">
-        <v>810387.3300074495</v>
+        <v>984040.5697817472</v>
       </c>
       <c r="AF6" t="n">
         <v>6.233676517304402e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>733045.100617299</v>
+        <v>890125.1189113903</v>
       </c>
     </row>
     <row r="7">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>573.0120705599602</v>
+        <v>699.8274400315005</v>
       </c>
       <c r="AB7" t="n">
-        <v>784.0203944485534</v>
+        <v>957.5347776587618</v>
       </c>
       <c r="AC7" t="n">
-        <v>709.1945883819172</v>
+        <v>866.1490023875097</v>
       </c>
       <c r="AD7" t="n">
-        <v>573012.0705599602</v>
+        <v>699827.4400315005</v>
       </c>
       <c r="AE7" t="n">
-        <v>784020.3944485533</v>
+        <v>957534.7776587617</v>
       </c>
       <c r="AF7" t="n">
         <v>6.349844209825236e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>709194.5883819172</v>
+        <v>866149.0023875097</v>
       </c>
     </row>
     <row r="8">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>573.3863233119396</v>
+        <v>700.2016927834798</v>
       </c>
       <c r="AB8" t="n">
-        <v>784.5324635746774</v>
+        <v>958.0468467848858</v>
       </c>
       <c r="AC8" t="n">
-        <v>709.6577863493378</v>
+        <v>866.6122003549302</v>
       </c>
       <c r="AD8" t="n">
-        <v>573386.3233119396</v>
+        <v>700201.6927834798</v>
       </c>
       <c r="AE8" t="n">
-        <v>784532.4635746775</v>
+        <v>958046.8467848859</v>
       </c>
       <c r="AF8" t="n">
         <v>6.361657873471423e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.18880208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>709657.7863493378</v>
+        <v>866612.2003549302</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.2582646703396</v>
+        <v>1018.512135249563</v>
       </c>
       <c r="AB2" t="n">
-        <v>1159.256136118561</v>
+        <v>1393.573237032607</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.618357513611</v>
+        <v>1260.572563182537</v>
       </c>
       <c r="AD2" t="n">
-        <v>847258.2646703396</v>
+        <v>1018512.135249563</v>
       </c>
       <c r="AE2" t="n">
-        <v>1159256.136118561</v>
+        <v>1393573.237032607</v>
       </c>
       <c r="AF2" t="n">
         <v>5.639703858035504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048618.357513611</v>
+        <v>1260572.563182537</v>
       </c>
     </row>
     <row r="3">
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.7963599133315</v>
+        <v>701.9712625357311</v>
       </c>
       <c r="AB3" t="n">
-        <v>778.2522731578082</v>
+        <v>960.4680501878238</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.9769684915517</v>
+        <v>868.8023275032718</v>
       </c>
       <c r="AD3" t="n">
-        <v>568796.3599133315</v>
+        <v>701971.2625357311</v>
       </c>
       <c r="AE3" t="n">
-        <v>778252.2731578082</v>
+        <v>960468.0501878238</v>
       </c>
       <c r="AF3" t="n">
         <v>7.306977170943666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.33723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>703976.9684915517</v>
+        <v>868802.3275032719</v>
       </c>
     </row>
     <row r="4">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>510.0554850925949</v>
+        <v>643.2635421039181</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.8804167635758</v>
+        <v>880.1415570911852</v>
       </c>
       <c r="AC4" t="n">
-        <v>631.275689268976</v>
+        <v>796.1420821688354</v>
       </c>
       <c r="AD4" t="n">
-        <v>510055.4850925949</v>
+        <v>643263.5421039182</v>
       </c>
       <c r="AE4" t="n">
-        <v>697880.4167635757</v>
+        <v>880141.5570911851</v>
       </c>
       <c r="AF4" t="n">
         <v>7.718426105910513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.87890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>631275.689268976</v>
+        <v>796142.0821688353</v>
       </c>
     </row>
     <row r="5">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.6138474491149</v>
+        <v>644.8219044604382</v>
       </c>
       <c r="AB5" t="n">
-        <v>700.0126368898615</v>
+        <v>882.2737772174708</v>
       </c>
       <c r="AC5" t="n">
-        <v>633.2044132989987</v>
+        <v>798.070806198858</v>
       </c>
       <c r="AD5" t="n">
-        <v>511613.8474491149</v>
+        <v>644821.9044604382</v>
       </c>
       <c r="AE5" t="n">
-        <v>700012.6368898614</v>
+        <v>882273.7772174708</v>
       </c>
       <c r="AF5" t="n">
         <v>7.717198816022469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>633204.4132989987</v>
+        <v>798070.806198858</v>
       </c>
     </row>
   </sheetData>
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>648.1311486766606</v>
+        <v>798.4445973485243</v>
       </c>
       <c r="AB2" t="n">
-        <v>886.8016311476574</v>
+        <v>1092.467122981839</v>
       </c>
       <c r="AC2" t="n">
-        <v>802.1665281048305</v>
+        <v>988.2035940516882</v>
       </c>
       <c r="AD2" t="n">
-        <v>648131.1486766606</v>
+        <v>798444.5973485244</v>
       </c>
       <c r="AE2" t="n">
-        <v>886801.6311476574</v>
+        <v>1092467.122981839</v>
       </c>
       <c r="AF2" t="n">
         <v>7.247948207699765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.33463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>802166.5281048305</v>
+        <v>988203.5940516882</v>
       </c>
     </row>
     <row r="3">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.6831169056108</v>
+        <v>627.2620186478853</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.2155085460096</v>
+        <v>858.2475667612485</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.4875722918223</v>
+        <v>776.3376235475795</v>
       </c>
       <c r="AD3" t="n">
-        <v>495683.1169056108</v>
+        <v>627262.0186478853</v>
       </c>
       <c r="AE3" t="n">
-        <v>678215.5085460095</v>
+        <v>858247.5667612485</v>
       </c>
       <c r="AF3" t="n">
         <v>8.532867256987767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.62109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>613487.5722918223</v>
+        <v>776337.6235475795</v>
       </c>
     </row>
     <row r="4">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.6284257854367</v>
+        <v>629.2073275277114</v>
       </c>
       <c r="AB4" t="n">
-        <v>680.8771659763584</v>
+        <v>860.9092241915973</v>
       </c>
       <c r="AC4" t="n">
-        <v>615.8952048726783</v>
+        <v>778.7452561284355</v>
       </c>
       <c r="AD4" t="n">
-        <v>497628.4257854367</v>
+        <v>629207.3275277114</v>
       </c>
       <c r="AE4" t="n">
-        <v>680877.1659763583</v>
+        <v>860909.2241915973</v>
       </c>
       <c r="AF4" t="n">
         <v>8.52972735162703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.62760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>615895.2048726783</v>
+        <v>778745.2561284355</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.3297036232556</v>
+        <v>659.8850494692593</v>
       </c>
       <c r="AB2" t="n">
-        <v>711.9380558237573</v>
+        <v>902.8838367575968</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.9916869872741</v>
+        <v>816.7138705828748</v>
       </c>
       <c r="AD2" t="n">
-        <v>520329.7036232556</v>
+        <v>659885.0494692593</v>
       </c>
       <c r="AE2" t="n">
-        <v>711938.0558237573</v>
+        <v>902883.8367575968</v>
       </c>
       <c r="AF2" t="n">
         <v>8.889279301642779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>643991.6869872741</v>
+        <v>816713.8705828749</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.9119838980646</v>
+        <v>620.1955277451968</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.3191897606658</v>
+        <v>848.578882156614</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.3448670887987</v>
+        <v>767.5917046315271</v>
       </c>
       <c r="AD3" t="n">
-        <v>489911.9838980646</v>
+        <v>620195.5277451968</v>
       </c>
       <c r="AE3" t="n">
-        <v>670319.1897606659</v>
+        <v>848578.882156614</v>
       </c>
       <c r="AF3" t="n">
         <v>9.254441868159487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>606344.8670887987</v>
+        <v>767591.7046315272</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.6658444979939</v>
+        <v>650.5492917330171</v>
       </c>
       <c r="AB2" t="n">
-        <v>690.506072727881</v>
+        <v>890.1102411583068</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.6051422780911</v>
+        <v>805.1593690197273</v>
       </c>
       <c r="AD2" t="n">
-        <v>504665.8444979939</v>
+        <v>650549.2917330171</v>
       </c>
       <c r="AE2" t="n">
-        <v>690506.072727881</v>
+        <v>890110.2411583068</v>
       </c>
       <c r="AF2" t="n">
         <v>1.067229951792947e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>624605.1422780911</v>
+        <v>805159.3690197272</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.66554759209</v>
+        <v>1278.626355791089</v>
       </c>
       <c r="AB2" t="n">
-        <v>1473.141301347137</v>
+        <v>1749.472989007038</v>
       </c>
       <c r="AC2" t="n">
-        <v>1332.546763113367</v>
+        <v>1582.505742336966</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076665.54759209</v>
+        <v>1278626.355791089</v>
       </c>
       <c r="AE2" t="n">
-        <v>1473141.301347137</v>
+        <v>1749472.989007038</v>
       </c>
       <c r="AF2" t="n">
         <v>4.536782303289381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.94791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1332546.763113367</v>
+        <v>1582505.742336967</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>673.4981792042388</v>
+        <v>808.1511175063558</v>
       </c>
       <c r="AB3" t="n">
-        <v>921.5099214298936</v>
+        <v>1105.748012083231</v>
       </c>
       <c r="AC3" t="n">
-        <v>833.5623078759216</v>
+        <v>1000.216973737089</v>
       </c>
       <c r="AD3" t="n">
-        <v>673498.1792042388</v>
+        <v>808151.1175063559</v>
       </c>
       <c r="AE3" t="n">
-        <v>921509.9214298936</v>
+        <v>1105748.012083231</v>
       </c>
       <c r="AF3" t="n">
         <v>6.24604433570006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.01692708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>833562.3078759216</v>
+        <v>1000216.973737089</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>571.8912515901998</v>
+        <v>696.8895892813189</v>
       </c>
       <c r="AB4" t="n">
-        <v>782.4868404870839</v>
+        <v>953.5150806535352</v>
       </c>
       <c r="AC4" t="n">
-        <v>707.807394658174</v>
+        <v>862.5129396227819</v>
       </c>
       <c r="AD4" t="n">
-        <v>571891.2515901998</v>
+        <v>696889.5892813188</v>
       </c>
       <c r="AE4" t="n">
-        <v>782486.8404870839</v>
+        <v>953515.0806535352</v>
       </c>
       <c r="AF4" t="n">
         <v>6.872402572332637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.37369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>707807.394658174</v>
+        <v>862512.9396227819</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>533.3026539936568</v>
+        <v>658.3683114924803</v>
       </c>
       <c r="AB5" t="n">
-        <v>729.6882188467179</v>
+        <v>900.8085689440107</v>
       </c>
       <c r="AC5" t="n">
-        <v>660.0477993638336</v>
+        <v>814.8366634167608</v>
       </c>
       <c r="AD5" t="n">
-        <v>533302.6539936569</v>
+        <v>658368.3114924803</v>
       </c>
       <c r="AE5" t="n">
-        <v>729688.2188467178</v>
+        <v>900808.5689440108</v>
       </c>
       <c r="AF5" t="n">
         <v>7.106521362113968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.50130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>660047.7993638336</v>
+        <v>814836.6634167607</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.9035165479105</v>
+        <v>659.969174046734</v>
       </c>
       <c r="AB6" t="n">
-        <v>731.8785896185192</v>
+        <v>902.998939715812</v>
       </c>
       <c r="AC6" t="n">
-        <v>662.029124223379</v>
+        <v>816.8179882763061</v>
       </c>
       <c r="AD6" t="n">
-        <v>534903.5165479105</v>
+        <v>659969.174046734</v>
       </c>
       <c r="AE6" t="n">
-        <v>731878.5896185192</v>
+        <v>902998.939715812</v>
       </c>
       <c r="AF6" t="n">
         <v>7.105129454921451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.5078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>662029.124223379</v>
+        <v>816817.9882763061</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1491.5010159801</v>
+        <v>1725.071421784653</v>
       </c>
       <c r="AB2" t="n">
-        <v>2040.73749044484</v>
+        <v>2360.318824065685</v>
       </c>
       <c r="AC2" t="n">
-        <v>1845.972368549841</v>
+        <v>2135.053308225132</v>
       </c>
       <c r="AD2" t="n">
-        <v>1491501.0159801</v>
+        <v>1725071.421784653</v>
       </c>
       <c r="AE2" t="n">
-        <v>2040737.49044484</v>
+        <v>2360318.824065685</v>
       </c>
       <c r="AF2" t="n">
         <v>3.467541421394324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1845972.368549841</v>
+        <v>2135053.308225132</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>814.2279382950934</v>
+        <v>969.9077137559669</v>
       </c>
       <c r="AB3" t="n">
-        <v>1114.062586376794</v>
+        <v>1327.070523269328</v>
       </c>
       <c r="AC3" t="n">
-        <v>1007.738016729652</v>
+        <v>1200.41677508368</v>
       </c>
       <c r="AD3" t="n">
-        <v>814227.9382950934</v>
+        <v>969907.713755967</v>
       </c>
       <c r="AE3" t="n">
-        <v>1114062.586376794</v>
+        <v>1327070.523269328</v>
       </c>
       <c r="AF3" t="n">
         <v>5.202444082501081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.47786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1007738.016729652</v>
+        <v>1200416.77508368</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.4033285509862</v>
+        <v>820.3799296078234</v>
       </c>
       <c r="AB4" t="n">
-        <v>922.7483866984843</v>
+        <v>1122.480012297573</v>
       </c>
       <c r="AC4" t="n">
-        <v>834.6825757574749</v>
+        <v>1015.352095334484</v>
       </c>
       <c r="AD4" t="n">
-        <v>674403.3285509862</v>
+        <v>820379.9296078235</v>
       </c>
       <c r="AE4" t="n">
-        <v>922748.3866984843</v>
+        <v>1122480.012297573</v>
       </c>
       <c r="AF4" t="n">
         <v>5.859729953672889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.94921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>834682.5757574749</v>
+        <v>1015352.095334484</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.5835236523002</v>
+        <v>741.0884781530747</v>
       </c>
       <c r="AB5" t="n">
-        <v>840.9002905725657</v>
+        <v>1013.98995032523</v>
       </c>
       <c r="AC5" t="n">
-        <v>760.6459470512896</v>
+        <v>917.2161726100232</v>
       </c>
       <c r="AD5" t="n">
-        <v>614583.5236523002</v>
+        <v>741088.4781530746</v>
       </c>
       <c r="AE5" t="n">
-        <v>840900.2905725657</v>
+        <v>1013989.95032523</v>
       </c>
       <c r="AF5" t="n">
         <v>6.225224163704514e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.30859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>760645.9470512896</v>
+        <v>917216.1726100233</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>572.472842217593</v>
+        <v>698.9436312995867</v>
       </c>
       <c r="AB6" t="n">
-        <v>783.282598441451</v>
+        <v>956.3255115608678</v>
       </c>
       <c r="AC6" t="n">
-        <v>708.5272065902296</v>
+        <v>865.0551469487832</v>
       </c>
       <c r="AD6" t="n">
-        <v>572472.842217593</v>
+        <v>698943.6312995867</v>
       </c>
       <c r="AE6" t="n">
-        <v>783282.598441451</v>
+        <v>956325.5115608678</v>
       </c>
       <c r="AF6" t="n">
         <v>6.442810186882322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>708527.2065902296</v>
+        <v>865055.1469487832</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>565.187031211398</v>
+        <v>691.6578202933916</v>
       </c>
       <c r="AB7" t="n">
-        <v>773.3138303954785</v>
+        <v>946.3567435148955</v>
       </c>
       <c r="AC7" t="n">
-        <v>699.509843775311</v>
+        <v>856.0377841338645</v>
       </c>
       <c r="AD7" t="n">
-        <v>565187.031211398</v>
+        <v>691657.8202933916</v>
       </c>
       <c r="AE7" t="n">
-        <v>773313.8303954785</v>
+        <v>946356.7435148954</v>
       </c>
       <c r="AF7" t="n">
         <v>6.486327391517884e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>699509.843775311</v>
+        <v>856037.7841338646</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>566.3857689522406</v>
+        <v>692.8565580342345</v>
       </c>
       <c r="AB8" t="n">
-        <v>774.9539962570761</v>
+        <v>947.996909376493</v>
       </c>
       <c r="AC8" t="n">
-        <v>700.9934745090651</v>
+        <v>857.5214148676187</v>
       </c>
       <c r="AD8" t="n">
-        <v>566385.7689522406</v>
+        <v>692856.5580342344</v>
       </c>
       <c r="AE8" t="n">
-        <v>774953.9962570762</v>
+        <v>947996.9093764931</v>
       </c>
       <c r="AF8" t="n">
         <v>6.487333569659747e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.24088541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>700993.474509065</v>
+        <v>857521.4148676187</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.3620329562234</v>
+        <v>711.8287615877877</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.6613696330986</v>
+        <v>973.9555152730134</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.9238634786731</v>
+        <v>881.0025678505074</v>
       </c>
       <c r="AD2" t="n">
-        <v>549362.0329562234</v>
+        <v>711828.7615877877</v>
       </c>
       <c r="AE2" t="n">
-        <v>751661.3696330986</v>
+        <v>973955.5152730134</v>
       </c>
       <c r="AF2" t="n">
         <v>1.098922724796559e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.15234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>679923.863478673</v>
+        <v>881002.5678505073</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>707.6736916187155</v>
+        <v>868.1723598286816</v>
       </c>
       <c r="AB2" t="n">
-        <v>968.2703652325789</v>
+        <v>1187.871723778965</v>
       </c>
       <c r="AC2" t="n">
-        <v>875.8600005507737</v>
+        <v>1074.502913649935</v>
       </c>
       <c r="AD2" t="n">
-        <v>707673.6916187154</v>
+        <v>868172.3598286816</v>
       </c>
       <c r="AE2" t="n">
-        <v>968270.3652325789</v>
+        <v>1187871.723778965</v>
       </c>
       <c r="AF2" t="n">
         <v>6.641173233935142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>875860.0005507737</v>
+        <v>1074502.913649935</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.9706849227802</v>
+        <v>628.6637673017648</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.2914129625703</v>
+        <v>860.1655011102724</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.2200921465223</v>
+        <v>778.0725129341704</v>
       </c>
       <c r="AD3" t="n">
-        <v>505970.6849227802</v>
+        <v>628663.7673017648</v>
       </c>
       <c r="AE3" t="n">
-        <v>692291.4129625703</v>
+        <v>860165.5011102725</v>
       </c>
       <c r="AF3" t="n">
         <v>8.204154490974882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.39973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>626220.0921465224</v>
+        <v>778072.5129341704</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.8095570115837</v>
+        <v>627.5026393905682</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.7027065291231</v>
+        <v>858.5767946768254</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.7830096253199</v>
+        <v>776.6354304129679</v>
       </c>
       <c r="AD4" t="n">
-        <v>504809.5570115837</v>
+        <v>627502.6393905682</v>
       </c>
       <c r="AE4" t="n">
-        <v>690702.7065291231</v>
+        <v>858576.7946768254</v>
       </c>
       <c r="AF4" t="n">
         <v>8.237756259165818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.29557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>624783.0096253199</v>
+        <v>776635.4304129679</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>916.1599499474675</v>
+        <v>1097.669795562008</v>
       </c>
       <c r="AB2" t="n">
-        <v>1253.530461642549</v>
+        <v>1501.880240061601</v>
       </c>
       <c r="AC2" t="n">
-        <v>1133.895273724436</v>
+        <v>1358.542897852277</v>
       </c>
       <c r="AD2" t="n">
-        <v>916159.9499474674</v>
+        <v>1097669.795562008</v>
       </c>
       <c r="AE2" t="n">
-        <v>1253530.461642549</v>
+        <v>1501880.240061601</v>
       </c>
       <c r="AF2" t="n">
         <v>5.23249638480096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1133895.273724436</v>
+        <v>1358542.897852277</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.8846558496213</v>
+        <v>741.1405442488924</v>
       </c>
       <c r="AB3" t="n">
-        <v>818.0521629428871</v>
+        <v>1014.061189454522</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.9784126550387</v>
+        <v>917.2806127768002</v>
       </c>
       <c r="AD3" t="n">
-        <v>597884.6558496213</v>
+        <v>741140.5442488925</v>
       </c>
       <c r="AE3" t="n">
-        <v>818052.1629428871</v>
+        <v>1014061.189454522</v>
       </c>
       <c r="AF3" t="n">
         <v>6.910402715747721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.91015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>739978.4126550388</v>
+        <v>917280.6127768003</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.5510951990767</v>
+        <v>653.2520356492258</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.8727294280164</v>
+        <v>893.8082546211098</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.0280338475478</v>
+        <v>808.5044492678346</v>
       </c>
       <c r="AD4" t="n">
-        <v>519551.0951990767</v>
+        <v>653252.0356492258</v>
       </c>
       <c r="AE4" t="n">
-        <v>710872.7294280165</v>
+        <v>893808.2546211098</v>
       </c>
       <c r="AF4" t="n">
         <v>7.480369484946444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>643028.0338475478</v>
+        <v>808504.4492678347</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>518.6437580429553</v>
+        <v>642.8580813815438</v>
       </c>
       <c r="AB5" t="n">
-        <v>709.6312707021209</v>
+        <v>879.5867878431678</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.9050582000534</v>
+        <v>795.6402593192254</v>
       </c>
       <c r="AD5" t="n">
-        <v>518643.7580429553</v>
+        <v>642858.0813815438</v>
       </c>
       <c r="AE5" t="n">
-        <v>709631.2707021208</v>
+        <v>879586.7878431678</v>
       </c>
       <c r="AF5" t="n">
         <v>7.500513840614589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.71614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>641905.0582000534</v>
+        <v>795640.2593192253</v>
       </c>
     </row>
   </sheetData>
